--- a/각도 계산.xlsx
+++ b/각도 계산.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\안단태\대학교\동아리\유피넬\유피넬 프로젝트\시크릿 5\170805\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,57 +54,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2-&gt;6</t>
+  </si>
+  <si>
+    <t>2-&gt;7</t>
+  </si>
+  <si>
+    <t>2-&gt;8</t>
+  </si>
+  <si>
+    <t>2-&gt;9</t>
+  </si>
+  <si>
+    <t>3-&gt;6</t>
+  </si>
+  <si>
+    <t>3-&gt;7</t>
+  </si>
+  <si>
+    <t>3-&gt;8</t>
+  </si>
+  <si>
+    <t>3-&gt;9</t>
+  </si>
+  <si>
+    <t>4-&gt;8</t>
+  </si>
+  <si>
+    <t>4-&gt;9</t>
+  </si>
+  <si>
+    <t>5-&gt;8</t>
+  </si>
+  <si>
+    <t>5-&gt;9</t>
+  </si>
+  <si>
+    <t>0-&gt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-&gt;4</t>
+  </si>
+  <si>
+    <t>0-&gt;5</t>
+  </si>
+  <si>
+    <t>0-&gt;6</t>
+  </si>
+  <si>
+    <t>0-&gt;7</t>
+  </si>
+  <si>
+    <t>0-&gt;8</t>
+  </si>
+  <si>
+    <t>0-&gt;9</t>
+  </si>
+  <si>
+    <t>1-&gt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-&gt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-&gt;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-&gt;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-&gt;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-&gt;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-&gt;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-&gt;3</t>
+  </si>
+  <si>
+    <t>2-&gt;4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-&gt;5</t>
-  </si>
-  <si>
-    <t>2-&gt;6</t>
-  </si>
-  <si>
-    <t>2-&gt;7</t>
-  </si>
-  <si>
-    <t>2-&gt;8</t>
-  </si>
-  <si>
-    <t>2-&gt;9</t>
-  </si>
-  <si>
-    <t>2-&gt;10</t>
-  </si>
-  <si>
-    <t>2-&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-&gt;4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,78 +154,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-&gt;6</t>
-  </si>
-  <si>
-    <t>3-&gt;7</t>
-  </si>
-  <si>
-    <t>3-&gt;8</t>
-  </si>
-  <si>
-    <t>3-&gt;9</t>
-  </si>
-  <si>
-    <t>3-&gt;10</t>
-  </si>
-  <si>
-    <t>4-&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-&gt;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-&gt;7</t>
-  </si>
-  <si>
-    <t>4-&gt;8</t>
-  </si>
-  <si>
-    <t>4-&gt;9</t>
-  </si>
-  <si>
-    <t>4-&gt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-&gt;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-&gt;7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-&gt;8</t>
-  </si>
-  <si>
-    <t>5-&gt;9</t>
-  </si>
-  <si>
-    <t>5-&gt;10</t>
-  </si>
-  <si>
-    <t>6-&gt;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-&gt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6-&gt;9</t>
-  </si>
-  <si>
-    <t>6-&gt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-&gt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7-&gt;9</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-&gt;10</t>
-  </si>
-  <si>
-    <t>8-&gt;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-&gt;10</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -543,7 +543,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>-0.35</v>
@@ -552,15 +552,15 @@
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <f>IF(M2&lt;0,K2,L2)</f>
-        <v>-63.03032157750463</v>
+        <f>90-IF(M2&lt;0,K2,L2)</f>
+        <v>153.03032157750462</v>
       </c>
       <c r="G2">
         <f>IF(F2+180&lt;180,F2+180,F2-180)</f>
-        <v>116.96967842249538</v>
+        <v>-26.969678422495377</v>
       </c>
       <c r="J2">
         <f>ATAN(($B$2-$B$4)/($C$2-$C$4))</f>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.35</v>
@@ -590,26 +590,26 @@
         <v>1.2</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <f>IF(M3&lt;0,K3,L3)</f>
-        <v>-54.001328234358198</v>
+        <f t="shared" ref="F3:F41" si="0">90-IF(M3&lt;0,K3,L3)</f>
+        <v>144.0013282343582</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" si="0">IF(F3+180&lt;180,F3+180,F3-180)</f>
-        <v>125.9986717656418</v>
+        <f t="shared" ref="G3:G41" si="1">IF(F3+180&lt;180,F3+180,F3-180)</f>
+        <v>-35.998671765641802</v>
       </c>
       <c r="J3">
         <f>ATAN((B2-B5)/(C2-C5))</f>
         <v>0.94250097813972666</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" si="1">-DEGREES(J3)</f>
+        <f t="shared" ref="K3:K41" si="2">-DEGREES(J3)</f>
         <v>-54.001328234358198</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L41" si="2">IF(180+K3&lt;180,180+K3,"false")</f>
+        <f t="shared" ref="L3:L5" si="3">IF(180+K3&lt;180,180+K3,"false")</f>
         <v>125.9986717656418</v>
       </c>
       <c r="M3">
@@ -619,7 +619,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1.9865999999999999</v>
@@ -628,26 +628,26 @@
         <v>2.3889999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <f>IF(M4&lt;0,K4,L4)</f>
-        <v>-27.030786596418974</v>
+        <f t="shared" si="0"/>
+        <v>117.03078659641898</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>152.96921340358102</v>
+        <f t="shared" si="1"/>
+        <v>-62.969213403581023</v>
       </c>
       <c r="J4">
         <f>ATAN((B2-B6)/(C2-C6))</f>
         <v>0.47177622551146275</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-27.030786596418974</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152.96921340358102</v>
       </c>
       <c r="M4">
@@ -657,7 +657,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2.2029000000000001</v>
@@ -666,26 +666,26 @@
         <v>3.0547</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <f>IF(M5&lt;0,K5,L5)</f>
-        <v>-18.001471452718093</v>
+        <f t="shared" si="0"/>
+        <v>108.00147145271809</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>161.99852854728192</v>
+        <f t="shared" si="1"/>
+        <v>-71.998528547281907</v>
       </c>
       <c r="J5">
         <f>ATAN((B2-B7)/(C2-C7))</f>
         <v>0.31418494705369748</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.001471452718093</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161.99852854728192</v>
       </c>
       <c r="M5">
@@ -695,7 +695,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1.5778000000000001</v>
@@ -704,22 +704,22 @@
         <v>4.9785000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <f>IF(M6&lt;0,K6,L6)</f>
-        <v>8.9717839534857937</v>
+        <f t="shared" si="0"/>
+        <v>81.028216046514203</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-171.02821604651422</v>
+        <f t="shared" si="1"/>
+        <v>-98.971783953485797</v>
       </c>
       <c r="J6">
         <f>ATAN((B2-B8)/(C2-C8))</f>
         <v>-0.15658716976592088</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9717839534857937</v>
       </c>
       <c r="L6">
@@ -733,7 +733,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1.0115000000000001</v>
@@ -742,26 +742,26 @@
         <v>5.3898999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <f>IF(M7&lt;0,K7,L7)</f>
-        <v>18.001247123297198</v>
+        <f t="shared" si="0"/>
+        <v>71.99875287670281</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-161.99875287670281</v>
+        <f t="shared" si="1"/>
+        <v>-108.00124712329719</v>
       </c>
       <c r="J7">
         <f>ATAN((B2-B9)/(C2-C9))</f>
         <v>-0.31418103176669371</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.001247123297198</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L41" si="3">IF(180+K7&lt;180,180+K7,K7)</f>
+        <f t="shared" ref="L7:L41" si="4">IF(180+K7&lt;180,180+K7,K7)</f>
         <v>18.001247123297198</v>
       </c>
       <c r="M7">
@@ -771,7 +771,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-1.0115000000000001</v>
@@ -780,26 +780,26 @@
         <v>5.3898999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <f>IF(M8&lt;0,K8,L8)</f>
-        <v>44.972183516285256</v>
+        <f t="shared" si="0"/>
+        <v>45.027816483714744</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-135.02781648371473</v>
+        <f t="shared" si="1"/>
+        <v>-134.97218351628527</v>
       </c>
       <c r="J8">
         <f>ATAN((B2-B10)/(C2-C10))</f>
         <v>-0.78491267417029864</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.972183516285256</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.972183516285256</v>
       </c>
       <c r="M8">
@@ -809,7 +809,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-1.5778000000000001</v>
@@ -818,26 +818,26 @@
         <v>4.9785000000000004</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <f>IF(M9&lt;0,K9,L9)</f>
-        <v>54.001363419755663</v>
+        <f t="shared" si="0"/>
+        <v>35.998636580244337</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>-125.99863658024434</v>
+        <f t="shared" si="1"/>
+        <v>-144.00136341975565</v>
       </c>
       <c r="J9">
         <f>ATAN((B2-B11)/(C2-C11))</f>
         <v>-0.94250159224076102</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.001363419755663</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.001363419755663</v>
       </c>
       <c r="M9">
@@ -847,7 +847,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-2.2029000000000001</v>
@@ -856,26 +856,26 @@
         <v>3.0547</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <f>IF(M10&lt;0,K10,L10)</f>
-        <v>-54.001363419755663</v>
+        <f t="shared" si="0"/>
+        <v>144.00136341975565</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>125.99863658024434</v>
+        <f t="shared" si="1"/>
+        <v>-35.998636580244352</v>
       </c>
       <c r="J10">
         <f>ATAN((B3-B4)/(C3-C4))</f>
         <v>0.94250159224076102</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-54.001363419755663</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125.99863658024434</v>
       </c>
       <c r="M10">
@@ -885,7 +885,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-1.9865999999999999</v>
@@ -894,26 +894,26 @@
         <v>2.3889999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <f>IF(M11&lt;0,K11,L11)</f>
-        <v>-44.972183516285256</v>
+        <f t="shared" si="0"/>
+        <v>134.97218351628527</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>135.02781648371473</v>
+        <f t="shared" si="1"/>
+        <v>-45.02781648371473</v>
       </c>
       <c r="J11">
         <f>ATAN((B3-B5)/(C3-C5))</f>
         <v>0.78491267417029864</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-44.972183516285256</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135.02781648371473</v>
       </c>
       <c r="M11">
@@ -923,26 +923,26 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <f>IF(M12&lt;0,K12,L12)</f>
-        <v>-18.001247123297198</v>
+        <f t="shared" si="0"/>
+        <v>108.00124712329719</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>161.99875287670281</v>
+        <f t="shared" si="1"/>
+        <v>-71.99875287670281</v>
       </c>
       <c r="J12">
         <f>ATAN((B3-B6)/(C3-C6))</f>
         <v>0.31418103176669371</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.001247123297198</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>161.99875287670281</v>
       </c>
       <c r="M12">
@@ -952,26 +952,26 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <f>IF(M13&lt;0,K13,L13)</f>
-        <v>-8.9717839534857937</v>
+        <f t="shared" si="0"/>
+        <v>98.971783953485797</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>171.02821604651422</v>
+        <f t="shared" si="1"/>
+        <v>-81.028216046514203</v>
       </c>
       <c r="J13">
         <f>ATAN((B3-B7)/(C3-C7))</f>
         <v>0.15658716976592088</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.9717839534857937</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>171.02821604651422</v>
       </c>
       <c r="M13">
@@ -981,26 +981,26 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <f>IF(M14&lt;0,K14,L14)</f>
-        <v>18.001471452718093</v>
+        <f t="shared" si="0"/>
+        <v>71.998528547281907</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-161.99852854728192</v>
+        <f t="shared" si="1"/>
+        <v>-108.00147145271809</v>
       </c>
       <c r="J14">
         <f>ATAN((B3-B8)/(C3-C8))</f>
         <v>-0.31418494705369748</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.001471452718093</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.001471452718093</v>
       </c>
       <c r="M14">
@@ -1010,26 +1010,26 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <f>IF(M15&lt;0,K15,L15)</f>
-        <v>27.030786596418974</v>
+        <f t="shared" si="0"/>
+        <v>62.969213403581023</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>-152.96921340358102</v>
+        <f t="shared" si="1"/>
+        <v>-117.03078659641898</v>
       </c>
       <c r="J15">
         <f>ATAN((B3-B9)/(C3-C9))</f>
         <v>-0.47177622551146275</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.030786596418974</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.030786596418974</v>
       </c>
       <c r="M15">
@@ -1039,26 +1039,26 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <f>IF(M16&lt;0,K16,L16)</f>
-        <v>54.001328234358198</v>
+        <f t="shared" si="0"/>
+        <v>35.998671765641802</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>-125.9986717656418</v>
+        <f t="shared" si="1"/>
+        <v>-144.0013282343582</v>
       </c>
       <c r="J16">
         <f>ATAN((B3-B10)/(C3-C10))</f>
         <v>-0.94250097813972666</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.001328234358198</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.001328234358198</v>
       </c>
       <c r="M16">
@@ -1068,26 +1068,26 @@
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <f>IF(M17&lt;0,K17,L17)</f>
-        <v>63.03032157750463</v>
+        <f t="shared" si="0"/>
+        <v>26.96967842249537</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>-116.96967842249538</v>
+        <f t="shared" si="1"/>
+        <v>-153.03032157750462</v>
       </c>
       <c r="J17">
         <f>ATAN((B3-B11)/(C3-C11))</f>
         <v>-1.1000866401182821</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.03032157750463</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63.03032157750463</v>
       </c>
       <c r="M17">
@@ -1097,26 +1097,26 @@
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F18">
-        <f>IF(M18&lt;0,K18,L18)</f>
-        <v>8.9711495359295963</v>
+        <f t="shared" si="0"/>
+        <v>81.028850464070402</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>-171.02885046407042</v>
+        <f t="shared" si="1"/>
+        <v>-98.971149535929598</v>
       </c>
       <c r="J18">
         <f>ATAN((B4-B6)/(C4-C6))</f>
         <v>-0.15657609709073278</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9711495359295963</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9711495359295963</v>
       </c>
       <c r="M18">
@@ -1126,26 +1126,26 @@
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <f>IF(M19&lt;0,K19,L19)</f>
-        <v>18.000837290821597</v>
+        <f t="shared" si="0"/>
+        <v>71.999162709178407</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>-161.99916270917839</v>
+        <f t="shared" si="1"/>
+        <v>-108.00083729082159</v>
       </c>
       <c r="J19">
         <f>ATAN((B4-B7)/(C4-C7))</f>
         <v>-0.31417387884061287</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.000837290821597</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.000837290821597</v>
       </c>
       <c r="M19">
@@ -1155,26 +1155,26 @@
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <f>IF(M20&lt;0,K20,L20)</f>
-        <v>44.973257514421256</v>
+        <f t="shared" si="0"/>
+        <v>45.026742485578744</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>-135.02674248557875</v>
+        <f t="shared" si="1"/>
+        <v>-134.97325751442125</v>
       </c>
       <c r="J20">
         <f>ATAN((B4-B8)/(C4-C8))</f>
         <v>-0.78493141897393215</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.973257514421256</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.973257514421256</v>
       </c>
       <c r="M20">
@@ -1184,26 +1184,26 @@
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <f>IF(M21&lt;0,K21,L21)</f>
-        <v>54.00197993803625</v>
+        <f t="shared" si="0"/>
+        <v>35.99802006196375</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>-125.99802006196376</v>
+        <f t="shared" si="1"/>
+        <v>-144.00197993803624</v>
       </c>
       <c r="J21">
         <f>ATAN((B4-B9)/(C4-C9))</f>
         <v>-0.94251235251465593</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.00197993803625</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.00197993803625</v>
       </c>
       <c r="M21">
@@ -1213,26 +1213,26 @@
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <f>IF(M22&lt;0,K22,L22)</f>
-        <v>80.97133985289814</v>
+        <f t="shared" si="0"/>
+        <v>9.0286601471018599</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>-99.02866014710186</v>
+        <f t="shared" si="1"/>
+        <v>-170.97133985289815</v>
       </c>
       <c r="J22">
         <f>ATAN((B4-B10)/(C4-C10))</f>
         <v>-1.4132164801843736</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.97133985289814</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80.97133985289814</v>
       </c>
       <c r="M22">
@@ -1242,15 +1242,15 @@
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <f>IF(M23&lt;0,K23,L23)</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>-90</v>
+        <f t="shared" si="1"/>
+        <v>-180</v>
       </c>
       <c r="J23" t="e">
         <f>ATAN((B4-B11)/(C4-C11))</f>
@@ -1260,7 +1260,7 @@
         <v>90</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="M23">
@@ -1270,26 +1270,26 @@
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F24">
-        <f>IF(M24&lt;0,K24,L24)</f>
-        <v>18.000524988715398</v>
+        <f t="shared" si="0"/>
+        <v>71.999475011284602</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>-161.9994750112846</v>
+        <f t="shared" si="1"/>
+        <v>-108.0005249887154</v>
       </c>
       <c r="J24">
         <f>ATAN((B5-B6)/(C5-C6))</f>
         <v>-0.31416842814059881</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.000524988715398</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.000524988715398</v>
       </c>
       <c r="M24">
@@ -1299,26 +1299,26 @@
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <f>IF(M25&lt;0,K25,L25)</f>
-        <v>27.03030402794116</v>
+        <f t="shared" si="0"/>
+        <v>62.969695972058844</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>-152.96969597205884</v>
+        <f t="shared" si="1"/>
+        <v>-117.03030402794116</v>
       </c>
       <c r="J25">
         <f>ATAN((B5-B7)/(C5-C7))</f>
         <v>-0.47176780310265859</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.03030402794116</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.03030402794116</v>
       </c>
       <c r="M25">
@@ -1328,26 +1328,26 @@
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <f>IF(M26&lt;0,K26,L26)</f>
-        <v>54.002313544629978</v>
+        <f t="shared" si="0"/>
+        <v>35.997686455370022</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>-125.99768645537003</v>
+        <f t="shared" si="1"/>
+        <v>-144.00231354462997</v>
       </c>
       <c r="J26">
         <f>ATAN((B5-B8)/(C5-C8))</f>
         <v>-0.94251817504812285</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.002313544629978</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.002313544629978</v>
       </c>
       <c r="M26">
@@ -1357,26 +1357,26 @@
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <f>IF(M27&lt;0,K27,L27)</f>
-        <v>63.030843048567846</v>
+        <f t="shared" si="0"/>
+        <v>26.969156951432154</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>-116.96915695143215</v>
+        <f t="shared" si="1"/>
+        <v>-153.03084304856785</v>
       </c>
       <c r="J27">
         <f>ATAN((B5-B9)/(C5-C9))</f>
         <v>-1.100095741505289</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.030843048567846</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63.030843048567846</v>
       </c>
       <c r="M27">
@@ -1386,15 +1386,15 @@
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <f>IF(M28&lt;0,K28,L28)</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>-90</v>
+        <f t="shared" si="1"/>
+        <v>-180</v>
       </c>
       <c r="J28" t="e">
         <f>ATAN((B5-B10)/(C5-C10))</f>
@@ -1404,7 +1404,7 @@
         <v>90</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="M28">
@@ -1414,26 +1414,26 @@
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <f>IF(M29&lt;0,K29,L29)</f>
-        <v>99.02866014710186</v>
+        <f t="shared" si="0"/>
+        <v>-9.0286601471018599</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>-80.97133985289814</v>
+        <f t="shared" si="1"/>
+        <v>170.97133985289815</v>
       </c>
       <c r="J29">
         <f>ATAN((B5-B11)/(C5-C11))</f>
         <v>1.4132164801843736</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-80.97133985289814</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.02866014710186</v>
       </c>
       <c r="M29">
@@ -1443,26 +1443,26 @@
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <f>IF(M30&lt;0,K30,L30)</f>
-        <v>80.972044140633727</v>
+        <f t="shared" si="0"/>
+        <v>9.0279558593662728</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>-99.027955859366273</v>
+        <f t="shared" si="1"/>
+        <v>-170.97204414063373</v>
       </c>
       <c r="J30">
         <f>ATAN((B6-B8)/(C6-C8))</f>
         <v>-1.4132287723242409</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.972044140633727</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80.972044140633727</v>
       </c>
       <c r="M30">
@@ -1472,15 +1472,15 @@
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <f>IF(M31&lt;0,K31,L31)</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>-90</v>
+        <f t="shared" si="1"/>
+        <v>-180</v>
       </c>
       <c r="J31" t="e">
         <f>ATAN((B6-B9)/(C6-C9))</f>
@@ -1490,7 +1490,7 @@
         <v>90</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="M31">
@@ -1500,26 +1500,26 @@
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <f>IF(M32&lt;0,K32,L32)</f>
-        <v>116.96915695143215</v>
+        <f t="shared" si="0"/>
+        <v>-26.969156951432154</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>-63.030843048567846</v>
+        <f t="shared" si="1"/>
+        <v>153.03084304856785</v>
       </c>
       <c r="J32">
         <f>ATAN((B6-B10)/(C6-C10))</f>
         <v>1.100095741505289</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-63.030843048567846</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116.96915695143215</v>
       </c>
       <c r="M32">
@@ -1529,26 +1529,26 @@
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <f>IF(M33&lt;0,K33,L33)</f>
-        <v>125.99802006196376</v>
+        <f t="shared" si="0"/>
+        <v>-35.998020061963757</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>-54.001979938036243</v>
+        <f t="shared" si="1"/>
+        <v>144.00197993803624</v>
       </c>
       <c r="J33">
         <f>ATAN((B6-B11)/(C6-C11))</f>
         <v>0.94251235251465593</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-54.00197993803625</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125.99802006196376</v>
       </c>
       <c r="M33">
@@ -1558,15 +1558,15 @@
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <f>IF(M34&lt;0,K34,L34)</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>-90</v>
+        <f t="shared" si="1"/>
+        <v>-180</v>
       </c>
       <c r="J34" t="e">
         <f>ATAN((B7-B8)/(C7-C8))</f>
@@ -1576,7 +1576,7 @@
         <v>90</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="M34">
@@ -1586,55 +1586,55 @@
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <f>IF(M35&lt;0,K35,L35)</f>
-        <v>99.027955859366273</v>
+        <f t="shared" si="0"/>
+        <v>-9.0279558593662728</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>-80.972044140633727</v>
+        <f t="shared" si="1"/>
+        <v>170.97204414063373</v>
       </c>
       <c r="J35">
         <f>ATAN((B7-B9)/(C7-C9))</f>
         <v>1.4132287723242409</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-80.972044140633727</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.027955859366273</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M41" si="4">$B$7-$B$9</f>
+        <f t="shared" ref="M35" si="5">$B$7-$B$9</f>
         <v>2.5893000000000002</v>
       </c>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F36">
-        <f>IF(M36&lt;0,K36,L36)</f>
-        <v>125.99768645537003</v>
+        <f t="shared" si="0"/>
+        <v>-35.99768645537003</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>-54.00231354462997</v>
+        <f t="shared" si="1"/>
+        <v>144.00231354462997</v>
       </c>
       <c r="J36">
         <f>ATAN((B7-B10)/(C7-C10))</f>
         <v>0.94251817504812285</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-54.002313544629978</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125.99768645537003</v>
       </c>
       <c r="M36">
@@ -1644,26 +1644,26 @@
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <f>IF(M37&lt;0,K37,L37)</f>
-        <v>135.02674248557875</v>
+        <f t="shared" si="0"/>
+        <v>-45.026742485578751</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>-44.973257514421249</v>
+        <f t="shared" si="1"/>
+        <v>134.97325751442125</v>
       </c>
       <c r="J37">
         <f>ATAN((B7-B11)/(C7-C11))</f>
         <v>0.78493141897393215</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-44.973257514421256</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135.02674248557875</v>
       </c>
       <c r="M37">
@@ -1676,23 +1676,23 @@
         <v>42</v>
       </c>
       <c r="F38">
-        <f>IF(M38&lt;0,K38,L38)</f>
-        <v>152.96969597205884</v>
+        <f t="shared" si="0"/>
+        <v>-62.969695972058844</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>-27.030304027941156</v>
+        <f t="shared" si="1"/>
+        <v>117.03030402794116</v>
       </c>
       <c r="J38">
         <f>ATAN((B8-B10)/(C8-C10))</f>
         <v>0.47176780310265859</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-27.03030402794116</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152.96969597205884</v>
       </c>
       <c r="M38">
@@ -1705,23 +1705,23 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <f>IF(M39&lt;0,K39,L39)</f>
-        <v>161.99916270917839</v>
+        <f t="shared" si="0"/>
+        <v>-71.999162709178393</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>-18.000837290821607</v>
+        <f t="shared" si="1"/>
+        <v>108.00083729082161</v>
       </c>
       <c r="J39">
         <f>ATAN((B8-B11)/(C8-C11))</f>
         <v>0.31417387884061287</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.000837290821597</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>161.99916270917839</v>
       </c>
       <c r="M39">
@@ -1734,23 +1734,23 @@
         <v>44</v>
       </c>
       <c r="F40">
-        <f>IF(M40&lt;0,K40,L40)</f>
-        <v>161.9994750112846</v>
+        <f t="shared" si="0"/>
+        <v>-71.999475011284602</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>-18.000524988715398</v>
+        <f t="shared" si="1"/>
+        <v>108.0005249887154</v>
       </c>
       <c r="J40">
         <f>ATAN((B9-B10)/(C9-C10))</f>
         <v>0.31416842814059881</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.000524988715398</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>161.9994750112846</v>
       </c>
       <c r="M40">
@@ -1763,23 +1763,23 @@
         <v>45</v>
       </c>
       <c r="F41">
-        <f>IF(M41&lt;0,K41,L41)</f>
-        <v>171.02885046407042</v>
+        <f t="shared" si="0"/>
+        <v>-81.028850464070416</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>-8.9711495359295839</v>
+        <f t="shared" si="1"/>
+        <v>98.971149535929584</v>
       </c>
       <c r="J41">
         <f>ATAN((B9-B11)/(C9-C11))</f>
         <v>0.15657609709073278</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.9711495359295963</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>171.02885046407042</v>
       </c>
       <c r="M41">

--- a/각도 계산.xlsx
+++ b/각도 계산.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>x좌표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,22 @@
   </si>
   <si>
     <t>7-&gt;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-&gt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-&gt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-&gt;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,15 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -556,30 +570,47 @@
       </c>
       <c r="F2">
         <f>90-IF(M2&lt;0,K2,L2)</f>
-        <v>153.03032157750462</v>
+        <v>153.03103811712612</v>
       </c>
       <c r="G2">
         <f>IF(F2+180&lt;180,F2+180,F2-180)</f>
-        <v>-26.969678422495377</v>
+        <v>-26.968961882873884</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(F2,0)</f>
+        <v>153</v>
+      </c>
+      <c r="I2">
+        <f>ROUND(G2,0)</f>
+        <v>-27</v>
       </c>
       <c r="J2">
         <f>ATAN(($B$2-$B$4)/($C$2-$C$4))</f>
-        <v>1.1000866401182821</v>
+        <v>1.1000991460938978</v>
       </c>
       <c r="K2">
         <f>-DEGREES(J2)</f>
-        <v>-63.03032157750463</v>
+        <v>-63.031038117126108</v>
       </c>
       <c r="L2">
         <f>IF(180+K2&lt;180,180+K2,"false")</f>
-        <v>116.96967842249538</v>
+        <v>116.96896188287388</v>
       </c>
       <c r="M2">
         <f>$B$2-$B$4</f>
-        <v>-2.3365999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-2.336576</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2">
+        <v>63</v>
+      </c>
+      <c r="Q2">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -594,653 +625,958 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F41" si="0">90-IF(M3&lt;0,K3,L3)</f>
-        <v>144.0013282343582</v>
+        <v>144.00134706564575</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G41" si="1">IF(F3+180&lt;180,F3+180,F3-180)</f>
-        <v>-35.998671765641802</v>
+        <v>-35.998652934354254</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I41" si="2">ROUND(F3,0)</f>
+        <v>144</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>-36</v>
       </c>
       <c r="J3">
         <f>ATAN((B2-B5)/(C2-C5))</f>
-        <v>0.94250097813972666</v>
+        <v>0.94250130680769695</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" si="2">-DEGREES(J3)</f>
-        <v>-54.001328234358198</v>
+        <f t="shared" ref="K3:K41" si="3">-DEGREES(J3)</f>
+        <v>-54.00134706564576</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L5" si="3">IF(180+K3&lt;180,180+K3,"false")</f>
-        <v>125.9986717656418</v>
+        <f t="shared" ref="L3:L5" si="4">IF(180+K3&lt;180,180+K3,"false")</f>
+        <v>125.99865293435424</v>
       </c>
       <c r="M3">
         <f>$B$2-$B$5</f>
-        <v>-2.5529000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-2.5528880000000003</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3">
+        <v>54</v>
+      </c>
+      <c r="Q3">
+        <f>18-144</f>
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.9865999999999999</v>
+        <v>1.9865759999999999</v>
       </c>
       <c r="C4">
-        <v>2.3889999999999998</v>
+        <v>2.388951</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>117.03078659641898</v>
+        <v>117.03123128090476</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>-62.969213403581023</v>
+        <v>-62.968768719095237</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>-63</v>
       </c>
       <c r="J4">
         <f>ATAN((B2-B6)/(C2-C6))</f>
-        <v>0.47177622551146275</v>
+        <v>0.47178398671987237</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>-27.030786596418974</v>
+        <f t="shared" si="3"/>
+        <v>-27.031231280904766</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
-        <v>152.96921340358102</v>
+        <f t="shared" si="4"/>
+        <v>152.96876871909524</v>
       </c>
       <c r="M4">
         <f>$B$2-$B$6</f>
-        <v>-1.9278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-1.9278140000000001</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <f>-54-117</f>
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.2029000000000001</v>
+        <v>2.2028880000000002</v>
       </c>
       <c r="C5">
-        <v>3.0547</v>
+        <v>3.0546899999999999</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>108.00147145271809</v>
+        <v>108.00148011337407</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-71.998528547281907</v>
+        <v>-71.998519886625928</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-72</v>
       </c>
       <c r="J5">
         <f>ATAN((B2-B7)/(C2-C7))</f>
-        <v>0.31418494705369748</v>
+        <v>0.31418509821065976</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>-18.001471452718093</v>
+        <f t="shared" si="3"/>
+        <v>-18.001480113374079</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
-        <v>161.99852854728192</v>
+        <f t="shared" si="4"/>
+        <v>161.99851988662593</v>
       </c>
       <c r="M5">
         <f>$B$2-$B$7</f>
-        <v>-1.3614999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-1.3615019999999998</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5">
+        <f>108-90</f>
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <f>-54-108</f>
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.5778000000000001</v>
+        <v>1.577814</v>
       </c>
       <c r="C6">
-        <v>4.9785000000000004</v>
+        <v>4.9784550000000003</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>81.028216046514203</v>
+        <v>81.028197788021799</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>-98.971783953485797</v>
+        <f>IF(F6+180&lt;180,F6+180,F6-180)+360</f>
+        <v>261.02819778802177</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>261</v>
       </c>
       <c r="J6">
         <f>ATAN((B2-B8)/(C2-C8))</f>
-        <v>-0.15658716976592088</v>
+        <v>-0.1565874884367299</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>8.9717839534857937</v>
+        <f t="shared" si="3"/>
+        <v>8.9718022119782042</v>
       </c>
       <c r="L6">
         <f>IF(180+K6&lt;180,180+K6,K6)</f>
-        <v>8.9717839534857937</v>
+        <v>8.9718022119782042</v>
       </c>
       <c r="M6">
         <f>$B$2-$B$8</f>
-        <v>0.66150000000000009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.66150199999999992</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>-9</v>
+      </c>
+      <c r="Q6">
+        <f>234-81</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0115000000000001</v>
+        <v>1.0115019999999999</v>
       </c>
       <c r="C7">
-        <v>5.3898999999999999</v>
+        <v>5.3899039999999996</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>71.99875287670281</v>
+        <v>71.998360303169932</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>-108.00124712329719</v>
+        <f t="shared" ref="G7:G9" si="5">IF(F7+180&lt;180,F7+180,F7-180)+360</f>
+        <v>251.99836030316993</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>252</v>
       </c>
       <c r="J7">
         <f>ATAN((B2-B9)/(C2-C9))</f>
-        <v>-0.31418103176669371</v>
+        <v>-0.3141878834673984</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>18.001247123297198</v>
+        <f t="shared" si="3"/>
+        <v>18.001639696830061</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L41" si="4">IF(180+K7&lt;180,180+K7,K7)</f>
-        <v>18.001247123297198</v>
+        <f t="shared" ref="L7:L41" si="6">IF(180+K7&lt;180,180+K7,K7)</f>
+        <v>18.001639696830061</v>
       </c>
       <c r="M7">
         <f>$B$2-$B$9</f>
-        <v>1.2278000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1.227814</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <v>-18</v>
+      </c>
+      <c r="Q7">
+        <f>234-72</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.0115000000000001</v>
+        <v>-1.0115019999999999</v>
       </c>
       <c r="C8">
-        <v>5.3898999999999999</v>
+        <v>5.3899039999999996</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>45.027816483714744</v>
+        <v>45.027847556154626</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-134.97218351628527</v>
+        <f t="shared" si="5"/>
+        <v>225.02784755615463</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>225</v>
       </c>
       <c r="J8">
         <f>ATAN((B2-B10)/(C2-C10))</f>
-        <v>-0.78491267417029864</v>
+        <v>-0.78491213185391606</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>44.972183516285256</v>
+        <f t="shared" si="3"/>
+        <v>44.972152443845374</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
-        <v>44.972183516285256</v>
+        <f t="shared" si="6"/>
+        <v>44.972152443845374</v>
       </c>
       <c r="M8">
         <f>$B$2-$B$10</f>
-        <v>1.8529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1.8528880000000001</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>-45</v>
+      </c>
+      <c r="Q8">
+        <f>162-45</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.5778000000000001</v>
+        <v>-1.577814</v>
       </c>
       <c r="C9">
-        <v>4.9785000000000004</v>
+        <v>4.9784550000000003</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>35.998636580244337</v>
+        <v>35.997913293110244</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-144.00136341975565</v>
+        <f t="shared" si="5"/>
+        <v>215.99791329311023</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>216</v>
       </c>
       <c r="J9">
         <f>ATAN((B2-B11)/(C2-C11))</f>
-        <v>-0.94250159224076102</v>
+        <v>-0.94251421598268825</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>54.001363419755663</v>
+        <f t="shared" si="3"/>
+        <v>54.002086706889756</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
-        <v>54.001363419755663</v>
+        <f t="shared" si="6"/>
+        <v>54.002086706889756</v>
       </c>
       <c r="M9">
         <f>$B$2-$B$11</f>
-        <v>1.6366000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1.6365759999999998</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9">
+        <f>36-90</f>
+        <v>-54</v>
+      </c>
+      <c r="Q9">
+        <f>162-36</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.2029000000000001</v>
+        <v>-2.2028880000000002</v>
       </c>
       <c r="C10">
-        <v>3.0547</v>
+        <v>3.0546899999999999</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>144.00136341975565</v>
+        <v>144.00208670688977</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>-35.998636580244352</v>
+        <v>-35.99791329311023</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>-36</v>
       </c>
       <c r="J10">
         <f>ATAN((B3-B4)/(C3-C4))</f>
-        <v>0.94250159224076102</v>
+        <v>0.94251421598268825</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>-54.001363419755663</v>
+        <f t="shared" si="3"/>
+        <v>-54.002086706889756</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
-        <v>125.99863658024434</v>
+        <f t="shared" si="6"/>
+        <v>125.99791329311024</v>
       </c>
       <c r="M10">
         <f>$B$3-$B$4</f>
-        <v>-1.6366000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-1.6365759999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.9865999999999999</v>
+        <v>-1.9865759999999999</v>
       </c>
       <c r="C11">
-        <v>2.3889999999999998</v>
+        <v>2.388951</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>134.97218351628527</v>
+        <v>134.97215244384537</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-45.02781648371473</v>
+        <v>-45.027847556154626</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-45</v>
       </c>
       <c r="J11">
         <f>ATAN((B3-B5)/(C3-C5))</f>
-        <v>0.78491267417029864</v>
+        <v>0.78491213185391606</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>-44.972183516285256</v>
+        <f t="shared" si="3"/>
+        <v>-44.972152443845374</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
-        <v>135.02781648371473</v>
+        <f t="shared" si="6"/>
+        <v>135.02784755615463</v>
       </c>
       <c r="M11">
         <f>$B$3-$B$5</f>
-        <v>-1.8529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-1.8528880000000001</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11">
+        <v>54</v>
+      </c>
+      <c r="Q11">
+        <f>18-144</f>
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
         <v>28</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>108.00124712329719</v>
+        <v>108.00163969683007</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-71.99875287670281</v>
+        <v>-71.998360303169932</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>-72</v>
       </c>
       <c r="J12">
         <f>ATAN((B3-B6)/(C3-C6))</f>
-        <v>0.31418103176669371</v>
+        <v>0.3141878834673984</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>-18.001247123297198</v>
+        <f t="shared" si="3"/>
+        <v>-18.001639696830061</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
-        <v>161.99875287670281</v>
+        <f t="shared" si="6"/>
+        <v>161.99836030316993</v>
       </c>
       <c r="M12">
         <f>$B$3-$B$6</f>
-        <v>-1.2278000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-1.227814</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12">
+        <v>45</v>
+      </c>
+      <c r="Q12">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>98.971783953485797</v>
+        <v>98.971802211978201</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-81.028216046514203</v>
+        <v>-81.028197788021799</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>-81</v>
       </c>
       <c r="J13">
         <f>ATAN((B3-B7)/(C3-C7))</f>
-        <v>0.15658716976592088</v>
+        <v>0.1565874884367299</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>-8.9717839534857937</v>
+        <f t="shared" si="3"/>
+        <v>-8.9718022119782042</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
-        <v>171.02821604651422</v>
+        <f t="shared" si="6"/>
+        <v>171.0281977880218</v>
       </c>
       <c r="M13">
         <f>$B$3-$B$7</f>
-        <v>-0.66150000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-0.66150199999999992</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>18</v>
+      </c>
+      <c r="Q13">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>71.998528547281907</v>
+        <v>71.998519886625928</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-108.00147145271809</v>
+        <v>-108.00148011337407</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>-108</v>
       </c>
       <c r="J14">
         <f>ATAN((B3-B8)/(C3-C8))</f>
-        <v>-0.31418494705369748</v>
+        <v>-0.31418509821065976</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>18.001471452718093</v>
+        <f t="shared" si="3"/>
+        <v>18.001480113374079</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
-        <v>18.001471452718093</v>
+        <f t="shared" si="6"/>
+        <v>18.001480113374079</v>
       </c>
       <c r="M14">
         <f>$B$3-$B$8</f>
-        <v>1.3614999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1.3615019999999998</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
         <v>31</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>62.969213403581023</v>
+        <v>62.968768719095237</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-117.03078659641898</v>
+        <v>-117.03123128090476</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-117</v>
       </c>
       <c r="J15">
         <f>ATAN((B3-B9)/(C3-C9))</f>
-        <v>-0.47177622551146275</v>
+        <v>-0.47178398671987237</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>27.030786596418974</v>
+        <f t="shared" si="3"/>
+        <v>27.031231280904766</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
-        <v>27.030786596418974</v>
+        <f t="shared" si="6"/>
+        <v>27.031231280904766</v>
       </c>
       <c r="M15">
         <f>$B$3-$B$9</f>
-        <v>1.9278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1.9278140000000001</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15">
+        <v>-18</v>
+      </c>
+      <c r="Q15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>35.998671765641802</v>
+        <v>35.99865293435424</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-144.0013282343582</v>
+        <v>-144.00134706564575</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-144</v>
       </c>
       <c r="J16">
         <f>ATAN((B3-B10)/(C3-C10))</f>
-        <v>-0.94250097813972666</v>
+        <v>-0.94250130680769695</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>54.001328234358198</v>
+        <f t="shared" si="3"/>
+        <v>54.00134706564576</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
-        <v>54.001328234358198</v>
+        <f t="shared" si="6"/>
+        <v>54.00134706564576</v>
       </c>
       <c r="M16">
         <f>$B$3-$B$10</f>
-        <v>2.5529000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.4">
+        <v>2.5528880000000003</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16">
+        <v>-27</v>
+      </c>
+      <c r="Q16">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>26.96967842249537</v>
+        <v>26.968961882873892</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>-153.03032157750462</v>
+        <v>-153.03103811712612</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-153</v>
       </c>
       <c r="J17">
         <f>ATAN((B3-B11)/(C3-C11))</f>
-        <v>-1.1000866401182821</v>
+        <v>-1.1000991460938978</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>63.03032157750463</v>
+        <f t="shared" si="3"/>
+        <v>63.031038117126108</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
-        <v>63.03032157750463</v>
+        <f t="shared" si="6"/>
+        <v>63.031038117126108</v>
       </c>
       <c r="M17">
         <f>$B$3-$B11</f>
-        <v>2.3365999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.4">
+        <v>2.336576</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17">
+        <v>-54</v>
+      </c>
+      <c r="Q17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E18" t="s">
         <v>34</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>81.028850464070402</v>
+        <v>81.029684447320136</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-98.971149535929598</v>
+        <v>-98.970315552679864</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>-99</v>
       </c>
       <c r="J18">
         <f>ATAN((B4-B6)/(C4-C6))</f>
-        <v>-0.15657609709073278</v>
+        <v>-0.15656154133711839</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>8.9711495359295963</v>
+        <f t="shared" si="3"/>
+        <v>8.9703155526798586</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
-        <v>8.9711495359295963</v>
+        <f t="shared" si="6"/>
+        <v>8.9703155526798586</v>
       </c>
       <c r="M18">
         <f>$B$4-$B$6</f>
-        <v>0.40879999999999983</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.4">
+        <v>0.40876199999999985</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18">
+        <v>-63</v>
+      </c>
+      <c r="Q18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>71.999162709178407</v>
+        <v>71.999909114359681</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-108.00083729082159</v>
+        <v>-108.00009088564032</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>-108</v>
       </c>
       <c r="J19">
         <f>ATAN((B4-B7)/(C4-C7))</f>
-        <v>-0.31417387884061287</v>
+        <v>-0.31416085161264556</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>18.000837290821597</v>
+        <f t="shared" si="3"/>
+        <v>18.000090885640315</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
-        <v>18.000837290821597</v>
+        <f t="shared" si="6"/>
+        <v>18.000090885640315</v>
       </c>
       <c r="M19">
         <f>$B$4-$B$7</f>
-        <v>0.97509999999999986</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.4">
+        <v>0.975074</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>45.026742485578744</v>
+        <v>45.027458660155119</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>-134.97325751442125</v>
+        <f>IF(F20+180&lt;180,F20+180,F20-180)+360</f>
+        <v>225.02745866015511</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>225</v>
       </c>
       <c r="J20">
         <f>ATAN((B4-B8)/(C4-C8))</f>
-        <v>-0.78493141897393215</v>
+        <v>-0.78491891936955527</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>44.973257514421256</v>
+        <f t="shared" si="3"/>
+        <v>44.972541339844881</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
-        <v>44.973257514421256</v>
+        <f t="shared" si="6"/>
+        <v>44.972541339844881</v>
       </c>
       <c r="M20">
         <f>$B$4-$B$8</f>
-        <v>2.9981</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.4">
+        <v>2.9980779999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>35.99802006196375</v>
+        <v>35.998138584543675</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>-144.00197993803624</v>
+        <f t="shared" ref="G21:G22" si="7">IF(F21+180&lt;180,F21+180,F21-180)+360</f>
+        <v>215.99813858454368</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>216</v>
       </c>
       <c r="J21">
         <f>ATAN((B4-B9)/(C4-C9))</f>
-        <v>-0.94251235251465593</v>
+        <v>-0.94251028390539837</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>54.00197993803625</v>
+        <f t="shared" si="3"/>
+        <v>54.001861415456325</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
-        <v>54.00197993803625</v>
+        <f t="shared" si="6"/>
+        <v>54.001861415456325</v>
       </c>
       <c r="M21">
         <f>$B$4-$B$9</f>
-        <v>3.5644</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.4">
+        <v>3.5643899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>9.0286601471018599</v>
+        <v>9.0292566864487753</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-170.97133985289815</v>
+        <f t="shared" si="7"/>
+        <v>189.02925668644878</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>189</v>
       </c>
       <c r="J22">
         <f>ATAN((B4-B10)/(C4-C10))</f>
-        <v>-1.4132164801843736</v>
+        <v>-1.4132060686086521</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>80.97133985289814</v>
+        <f t="shared" si="3"/>
+        <v>80.970743313551225</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
-        <v>80.97133985289814</v>
+        <f t="shared" si="6"/>
+        <v>80.970743313551225</v>
       </c>
       <c r="M22">
         <f>$B$4-$B$10</f>
-        <v>4.1894999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.4">
+        <v>4.1894640000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>10</v>
       </c>
@@ -1249,8 +1585,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>-180</v>
+        <f>IF(F23+180&lt;180,F23+180,F23-180)+360</f>
+        <v>180</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="J23" t="e">
         <f>ATAN((B4-B11)/(C4-C11))</f>
@@ -1260,131 +1604,163 @@
         <v>90</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="M23">
         <f>$B$4-$B$11</f>
-        <v>3.9731999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.4">
+        <v>3.9731519999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>71.999475011284602</v>
+        <v>71.999869060485906</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>-108.0005249887154</v>
+        <v>-108.00013093951409</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>-108</v>
       </c>
       <c r="J24">
         <f>ATAN((B5-B6)/(C5-C6))</f>
-        <v>-0.31416842814059881</v>
+        <v>-0.31416155068462126</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
-        <v>18.000524988715398</v>
+        <f t="shared" si="3"/>
+        <v>18.000130939514097</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
-        <v>18.000524988715398</v>
+        <f t="shared" si="6"/>
+        <v>18.000130939514097</v>
       </c>
       <c r="M24">
         <f>$B$5-$B$6</f>
-        <v>0.62509999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
+        <v>0.62507400000000013</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
         <v>37</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>62.969695972058844</v>
+        <v>62.970107581411106</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>-117.03030402794116</v>
+        <v>-117.0298924185889</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>-117</v>
       </c>
       <c r="J25">
         <f>ATAN((B5-B7)/(C5-C7))</f>
-        <v>-0.47176780310265859</v>
+        <v>-0.47176061916422951</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
-        <v>27.03030402794116</v>
+        <f t="shared" si="3"/>
+        <v>27.029892418588894</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
-        <v>27.03030402794116</v>
+        <f t="shared" si="6"/>
+        <v>27.029892418588894</v>
       </c>
       <c r="M25">
         <f>$B$5-$B$7</f>
-        <v>1.1914</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.4">
+        <v>1.1913860000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>35.997686455370022</v>
+        <v>35.997934554328467</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>-144.00231354462997</v>
+        <f>IF(F26+180&lt;180,F26+180,F26-180)+360</f>
+        <v>215.99793455432848</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>216</v>
       </c>
       <c r="J26">
         <f>ATAN((B5-B8)/(C5-C8))</f>
-        <v>-0.94251817504812285</v>
+        <v>-0.94251384490442724</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
-        <v>54.002313544629978</v>
+        <f t="shared" si="3"/>
+        <v>54.002065445671533</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
-        <v>54.002313544629978</v>
+        <f t="shared" si="6"/>
+        <v>54.002065445671533</v>
       </c>
       <c r="M26">
         <f>$B$5-$B$8</f>
-        <v>3.2144000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.4">
+        <v>3.2143899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>26.969156951432154</v>
+        <v>26.968723373045357</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>-153.03084304856785</v>
+        <f t="shared" ref="G27:G28" si="8">IF(F27+180&lt;180,F27+180,F27-180)+360</f>
+        <v>206.96872337304535</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>207</v>
       </c>
       <c r="J27">
         <f>ATAN((B5-B9)/(C5-C9))</f>
-        <v>-1.100095741505289</v>
+        <v>-1.1001033088757042</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
-        <v>63.030843048567846</v>
+        <f t="shared" si="3"/>
+        <v>63.031276626954643</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
-        <v>63.030843048567846</v>
+        <f t="shared" si="6"/>
+        <v>63.031276626954643</v>
       </c>
       <c r="M27">
         <f>$B$5-$B$9</f>
-        <v>3.7807000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.4">
+        <v>3.7807020000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>13</v>
       </c>
@@ -1393,8 +1769,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>-180</v>
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="J28" t="e">
         <f>ATAN((B5-B10)/(C5-C10))</f>
@@ -1404,73 +1788,89 @@
         <v>90</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="M28">
         <f>$B$5-$B$10</f>
-        <v>4.4058000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.4">
+        <v>4.4057760000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>-9.0286601471018599</v>
+        <v>-9.0292566864487753</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>170.97133985289815</v>
+        <v>170.97074331355122</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>171</v>
       </c>
       <c r="J29">
         <f>ATAN((B5-B11)/(C5-C11))</f>
-        <v>1.4132164801843736</v>
+        <v>1.4132060686086521</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
-        <v>-80.97133985289814</v>
+        <f t="shared" si="3"/>
+        <v>-80.970743313551225</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
-        <v>99.02866014710186</v>
+        <f t="shared" si="6"/>
+        <v>99.029256686448775</v>
       </c>
       <c r="M29">
         <f>$B$5-$B$11</f>
-        <v>4.1894999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.4">
+        <v>4.1894640000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
         <v>38</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>9.0279558593662728</v>
+        <v>9.0289585525480902</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>-170.97204414063373</v>
+        <f>IF(F30+180&lt;180,F30+180,F30-180)+360</f>
+        <v>189.02895855254809</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>189</v>
       </c>
       <c r="J30">
         <f>ATAN((B6-B8)/(C6-C8))</f>
-        <v>-1.4132287723242409</v>
+        <v>-1.4132112720268311</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
-        <v>80.972044140633727</v>
+        <f t="shared" si="3"/>
+        <v>80.97104144745191</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
-        <v>80.972044140633727</v>
+        <f t="shared" si="6"/>
+        <v>80.97104144745191</v>
       </c>
       <c r="M30">
         <f>$B$6-$B$8</f>
-        <v>2.5893000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.4">
+        <v>2.5893160000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
         <v>39</v>
       </c>
@@ -1479,8 +1879,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>-180</v>
+        <f>IF(F31+180&lt;180,F31+180,F31-180)+360</f>
+        <v>180</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="J31" t="e">
         <f>ATAN((B6-B9)/(C6-C9))</f>
@@ -1490,41 +1898,49 @@
         <v>90</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="M31">
         <f>$B$6-$B$9</f>
-        <v>3.1556000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.4">
+        <v>3.1556280000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>-26.969156951432154</v>
+        <v>-26.96872337304535</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>153.03084304856785</v>
+        <v>153.03127662695465</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>-27</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>153</v>
       </c>
       <c r="J32">
         <f>ATAN((B6-B10)/(C6-C10))</f>
-        <v>1.100095741505289</v>
+        <v>1.1001033088757042</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
-        <v>-63.030843048567846</v>
+        <f t="shared" si="3"/>
+        <v>-63.031276626954643</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
-        <v>116.96915695143215</v>
+        <f t="shared" si="6"/>
+        <v>116.96872337304535</v>
       </c>
       <c r="M32">
         <f>$B$6-$B$10</f>
-        <v>3.7807000000000004</v>
+        <v>3.7807020000000002</v>
       </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.4">
@@ -1533,27 +1949,35 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>-35.998020061963757</v>
+        <v>-35.998138584543682</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>144.00197993803624</v>
+        <v>144.00186141545632</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="J33">
         <f>ATAN((B6-B11)/(C6-C11))</f>
-        <v>0.94251235251465593</v>
+        <v>0.94251028390539837</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
-        <v>-54.00197993803625</v>
+        <f t="shared" si="3"/>
+        <v>-54.001861415456325</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
-        <v>125.99802006196376</v>
+        <f t="shared" si="6"/>
+        <v>125.99813858454368</v>
       </c>
       <c r="M33">
         <f>$B$6-$B$11</f>
-        <v>3.5644</v>
+        <v>3.5643899999999999</v>
       </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.4">
@@ -1565,8 +1989,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>-180</v>
+        <f>IF(F34+180&lt;180,F34+180,F34-180)+360</f>
+        <v>180</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="J34" t="e">
         <f>ATAN((B7-B8)/(C7-C8))</f>
@@ -1576,12 +2008,12 @@
         <v>90</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="M34">
         <f>$B$7-$B$8</f>
-        <v>2.0230000000000001</v>
+        <v>2.0230039999999998</v>
       </c>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.4">
@@ -1590,27 +2022,35 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>-9.0279558593662728</v>
+        <v>-9.0289585525480902</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>170.97204414063373</v>
+        <v>170.97104144745191</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>171</v>
       </c>
       <c r="J35">
         <f>ATAN((B7-B9)/(C7-C9))</f>
-        <v>1.4132287723242409</v>
+        <v>1.4132112720268311</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>-80.972044140633727</v>
+        <f t="shared" si="3"/>
+        <v>-80.97104144745191</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
-        <v>99.027955859366273</v>
+        <f t="shared" si="6"/>
+        <v>99.02895855254809</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35" si="5">$B$7-$B$9</f>
-        <v>2.5893000000000002</v>
+        <f t="shared" ref="M35" si="9">$B$7-$B$9</f>
+        <v>2.5893160000000002</v>
       </c>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.4">
@@ -1619,27 +2059,35 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>-35.99768645537003</v>
+        <v>-35.997934554328467</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>144.00231354462997</v>
+        <v>144.00206544567152</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="J36">
         <f>ATAN((B7-B10)/(C7-C10))</f>
-        <v>0.94251817504812285</v>
+        <v>0.94251384490442724</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>-54.002313544629978</v>
+        <f t="shared" si="3"/>
+        <v>-54.002065445671533</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
-        <v>125.99768645537003</v>
+        <f t="shared" si="6"/>
+        <v>125.99793455432847</v>
       </c>
       <c r="M36">
         <f>$B$7-$B$10</f>
-        <v>3.2144000000000004</v>
+        <v>3.2143899999999999</v>
       </c>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.4">
@@ -1648,27 +2096,35 @@
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>-45.026742485578751</v>
+        <v>-45.027458660155105</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>134.97325751442125</v>
+        <v>134.97254133984489</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>-45</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="J37">
         <f>ATAN((B7-B11)/(C7-C11))</f>
-        <v>0.78493141897393215</v>
+        <v>0.78491891936955527</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>-44.973257514421256</v>
+        <f t="shared" si="3"/>
+        <v>-44.972541339844881</v>
       </c>
       <c r="L37">
-        <f t="shared" si="4"/>
-        <v>135.02674248557875</v>
+        <f t="shared" si="6"/>
+        <v>135.02745866015511</v>
       </c>
       <c r="M37">
         <f>$B$7-$B$11</f>
-        <v>2.9981</v>
+        <v>2.9980779999999996</v>
       </c>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.4">
@@ -1676,28 +2132,36 @@
         <v>42</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>-62.969695972058844</v>
+        <f>90-IF(M38&lt;0,K38,L38)+360</f>
+        <v>297.02989241858893</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>117.03030402794116</v>
+        <v>117.02989241858893</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
       <c r="J38">
         <f>ATAN((B8-B10)/(C8-C10))</f>
-        <v>0.47176780310265859</v>
+        <v>0.47176061916422951</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>-27.03030402794116</v>
+        <f t="shared" si="3"/>
+        <v>-27.029892418588894</v>
       </c>
       <c r="L38">
-        <f t="shared" si="4"/>
-        <v>152.96969597205884</v>
+        <f t="shared" si="6"/>
+        <v>152.9701075814111</v>
       </c>
       <c r="M38">
         <f>$B$8-$B$10</f>
-        <v>1.1914</v>
+        <v>1.1913860000000003</v>
       </c>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.4">
@@ -1705,28 +2169,36 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>-71.999162709178393</v>
+        <f t="shared" ref="F39:F41" si="10">90-IF(M39&lt;0,K39,L39)+360</f>
+        <v>288.0000908856403</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>108.00083729082161</v>
+        <v>108.0000908856403</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="J39">
         <f>ATAN((B8-B11)/(C8-C11))</f>
-        <v>0.31417387884061287</v>
+        <v>0.31416085161264556</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>-18.000837290821597</v>
+        <f t="shared" si="3"/>
+        <v>-18.000090885640315</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
-        <v>161.99916270917839</v>
+        <f t="shared" si="6"/>
+        <v>161.9999091143597</v>
       </c>
       <c r="M39">
         <f>$B$8-$B$11</f>
-        <v>0.97509999999999986</v>
+        <v>0.975074</v>
       </c>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.4">
@@ -1734,28 +2206,36 @@
         <v>44</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>-71.999475011284602</v>
+        <f t="shared" si="10"/>
+        <v>288.00013093951407</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>108.0005249887154</v>
+        <v>108.00013093951407</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="J40">
         <f>ATAN((B9-B10)/(C9-C10))</f>
-        <v>0.31416842814059881</v>
+        <v>0.31416155068462126</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>-18.000524988715398</v>
+        <f t="shared" si="3"/>
+        <v>-18.000130939514097</v>
       </c>
       <c r="L40">
-        <f t="shared" si="4"/>
-        <v>161.9994750112846</v>
+        <f t="shared" si="6"/>
+        <v>161.99986906048591</v>
       </c>
       <c r="M40">
         <f>$B$9-$B$10</f>
-        <v>0.62509999999999999</v>
+        <v>0.62507400000000013</v>
       </c>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.4">
@@ -1763,28 +2243,36 @@
         <v>45</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>-81.028850464070416</v>
+        <f t="shared" si="10"/>
+        <v>278.97031555267984</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>98.971149535929584</v>
+        <v>98.970315552679835</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>99</v>
       </c>
       <c r="J41">
         <f>ATAN((B9-B11)/(C9-C11))</f>
-        <v>0.15657609709073278</v>
+        <v>0.15656154133711839</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>-8.9711495359295963</v>
+        <f t="shared" si="3"/>
+        <v>-8.9703155526798586</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
-        <v>171.02885046407042</v>
+        <f t="shared" si="6"/>
+        <v>171.02968444732014</v>
       </c>
       <c r="M41">
         <f>$B$89-$B$11</f>
-        <v>1.9865999999999999</v>
+        <v>1.9865759999999999</v>
       </c>
     </row>
   </sheetData>

--- a/각도 계산.xlsx
+++ b/각도 계산.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>x좌표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,38 @@
   <si>
     <t>1-&gt;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-&gt;2</t>
+  </si>
+  <si>
+    <t>10-&gt;3</t>
+  </si>
+  <si>
+    <t>10-&gt;4</t>
+  </si>
+  <si>
+    <t>10-&gt;5</t>
+  </si>
+  <si>
+    <t>10-&gt;6</t>
+  </si>
+  <si>
+    <t>10-&gt;7</t>
+  </si>
+  <si>
+    <t>10-&gt;8</t>
+  </si>
+  <si>
+    <t>10-&gt;9</t>
   </si>
 </sst>
 </file>
@@ -529,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +656,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F41" si="0">90-IF(M3&lt;0,K3,L3)</f>
+        <f t="shared" ref="F3:F37" si="0">90-IF(M3&lt;0,K3,L3)</f>
         <v>144.00134706564575</v>
       </c>
       <c r="G3">
@@ -644,7 +676,7 @@
         <v>0.94250130680769695</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" si="3">-DEGREES(J3)</f>
+        <f t="shared" ref="K3:K51" si="3">-DEGREES(J3)</f>
         <v>-54.00134706564576</v>
       </c>
       <c r="L3">
@@ -873,7 +905,7 @@
         <v>18.001639696830061</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L41" si="6">IF(180+K7&lt;180,180+K7,K7)</f>
+        <f t="shared" ref="L7:L51" si="6">IF(180+K7&lt;180,180+K7,K7)</f>
         <v>18.001639696830061</v>
       </c>
       <c r="M7">
@@ -1107,6 +1139,15 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3.4026000000000001</v>
+      </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
@@ -2169,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F41" si="10">90-IF(M39&lt;0,K39,L39)+360</f>
+        <f t="shared" ref="F39:F51" si="10">90-IF(M39&lt;0,K39,L39)+360</f>
         <v>288.0000908856403</v>
       </c>
       <c r="G39">
@@ -2272,6 +2313,296 @@
       </c>
       <c r="M41">
         <f>$B$89-$B$11</f>
+        <v>1.9865759999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <f>90-IF(M42&lt;0,K42,L42)+360</f>
+        <v>279.02898826833575</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H51" si="11">ROUND(F42,0)</f>
+        <v>279</v>
+      </c>
+      <c r="J42">
+        <f>ATAN((B2-$B$12)/(C2-$C$12))</f>
+        <v>0.15758557340640045</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>-9.0289882683357696</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>170.97101173166422</v>
+      </c>
+      <c r="M42">
+        <f>$B$12-$B2</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <f>90-IF(M43&lt;0,K43,L43)</f>
+        <v>80.971011731664234</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J51" si="12">ATAN((B3-$B$12)/(C3-$C$12))</f>
+        <v>-0.15758557340640045</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>9.0289882683357696</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>9.0289882683357696</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:M51" si="13">$B$12-$B3</f>
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F51" si="14">90-IF(M44&lt;0,K44,L44)</f>
+        <v>27.032915620428163</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="12"/>
+        <v>-1.0989829428046194</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>62.967084379571837</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>62.967084379571837</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="13"/>
+        <v>-1.9865759999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="14"/>
+        <v>8.9747983159099505</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="12"/>
+        <v>-1.4141565464798258</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>81.02520168409005</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>81.02520168409005</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="13"/>
+        <v>-2.2028880000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="14"/>
+        <v>135.0355910584241</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="12"/>
+        <v>0.78601934455121847</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>-45.035591058424096</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>134.9644089415759</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="13"/>
+        <v>-1.577814</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="14"/>
+        <v>116.97527565605348</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="12"/>
+        <v>0.47080737683120671</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>-26.975275656053483</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>153.0247243439465</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="13"/>
+        <v>-1.0115019999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48">
+        <f>90-IF(M48&lt;0,K48,L48)+360</f>
+        <v>423.0247243439465</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>423</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="12"/>
+        <v>-0.47080737683120671</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>26.975275656053483</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>26.975275656053483</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="13"/>
+        <v>1.0115019999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F51" si="15">90-IF(M49&lt;0,K49,L49)+360</f>
+        <v>404.96440894157593</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>405</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="12"/>
+        <v>-0.78601934455121847</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>45.035591058424096</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>45.035591058424096</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="13"/>
+        <v>1.577814</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="15"/>
+        <v>351.02520168409006</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>351</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="12"/>
+        <v>1.4141565464798258</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>-81.02520168409005</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>98.97479831590995</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="13"/>
+        <v>2.2028880000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="15"/>
+        <v>332.96708437957182</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>333</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="12"/>
+        <v>1.0989829428046194</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>-62.967084379571837</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>117.03291562042816</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="13"/>
         <v>1.9865759999999999</v>
       </c>
     </row>

--- a/각도 계산.xlsx
+++ b/각도 계산.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\안단태\대학교\동아리\유피넬\유피넬 프로젝트\시크릿 5\170805\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong\Desktop\secret5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>x좌표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,14 @@
   </si>
   <si>
     <t>10-&gt;9</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -277,8 +285,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,11 +572,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
@@ -2210,7 +2228,7 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F51" si="10">90-IF(M39&lt;0,K39,L39)+360</f>
+        <f t="shared" ref="F39:F41" si="10">90-IF(M39&lt;0,K39,L39)+360</f>
         <v>288.0000908856403</v>
       </c>
       <c r="G39">
@@ -2312,7 +2330,7 @@
         <v>171.02968444732014</v>
       </c>
       <c r="M41">
-        <f>$B$89-$B$11</f>
+        <f>$B$90-$B$11</f>
         <v>1.9865759999999999</v>
       </c>
     </row>
@@ -2379,7 +2397,7 @@
         <v>52</v>
       </c>
       <c r="F44">
-        <f t="shared" ref="F44:F51" si="14">90-IF(M44&lt;0,K44,L44)</f>
+        <f t="shared" ref="F44:F47" si="14">90-IF(M44&lt;0,K44,L44)</f>
         <v>27.032915620428163</v>
       </c>
       <c r="H44">
@@ -2519,7 +2537,7 @@
         <v>1.0115019999999999</v>
       </c>
     </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
         <v>57</v>
       </c>
@@ -2548,7 +2566,7 @@
         <v>1.577814</v>
       </c>
     </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E50" t="s">
         <v>58</v>
       </c>
@@ -2577,7 +2595,7 @@
         <v>2.2028880000000002</v>
       </c>
     </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
         <v>59</v>
       </c>
@@ -2604,6 +2622,309 @@
       <c r="M51">
         <f t="shared" si="13"/>
         <v>1.9865759999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <f>(C55-C54)/(B55-B54)</f>
+        <v>0.72651421508034608</v>
+      </c>
+      <c r="G54" s="1">
+        <f>DEGREES(ATAN(F54))</f>
+        <v>35.998938234749858</v>
+      </c>
+      <c r="H54" s="1">
+        <f>90+G54</f>
+        <v>125.99893823474986</v>
+      </c>
+      <c r="I54" s="1">
+        <f>180-G54</f>
+        <v>144.00106176525014</v>
+      </c>
+      <c r="J54" s="1">
+        <f>I54-180</f>
+        <v>-35.998938234749858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="C55">
+        <v>2.351</v>
+      </c>
+      <c r="E55">
+        <v>13</v>
+      </c>
+      <c r="F55">
+        <f>(C56-C54)/(B56-B54)</f>
+        <v>3.0775000000000001</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" ref="G55:G63" si="16">DEGREES(ATAN(F55))</f>
+        <v>71.998995766209418</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" ref="H55:H63" si="17">90+G55</f>
+        <v>161.99899576620942</v>
+      </c>
+      <c r="I55" s="1">
+        <f>180-G55</f>
+        <v>108.00100423379058</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" ref="J55:J63" si="18">I55-180</f>
+        <v>-71.998995766209418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>6.1550000000000002</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <f>(C57-C54)/(B57-B54)</f>
+        <v>-3.0775000000000001</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="16"/>
+        <v>-71.998995766209418</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="17"/>
+        <v>18.001004233790582</v>
+      </c>
+      <c r="I56" s="1">
+        <f>180-G56</f>
+        <v>251.99899576620942</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="18"/>
+        <v>71.998995766209418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>-2</v>
+      </c>
+      <c r="C57">
+        <v>6.1550000000000002</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <f>(C58-C54)/(B58-B54)</f>
+        <v>-0.72651421508034608</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="16"/>
+        <v>-35.998938234749858</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="17"/>
+        <v>54.001061765250142</v>
+      </c>
+      <c r="I57" s="1">
+        <f>180-G57</f>
+        <v>215.99893823474986</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="18"/>
+        <v>35.998938234749858</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>-3.2360000000000002</v>
+      </c>
+      <c r="C58">
+        <v>2.351</v>
+      </c>
+      <c r="E58">
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <f>(C56-C55)/(B56-B55)</f>
+        <v>-3.0776699029126209</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="16"/>
+        <v>-71.999925403104086</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="17"/>
+        <v>18.000074596895914</v>
+      </c>
+      <c r="I58" s="1">
+        <f>180-G58</f>
+        <v>251.9999254031041</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="18"/>
+        <v>71.9999254031041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59">
+        <f>(C57-C55)/(B57-B55)</f>
+        <v>-0.72650878533231467</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="16"/>
+        <v>-35.998734610070379</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="17"/>
+        <v>54.001265389929621</v>
+      </c>
+      <c r="I59" s="1">
+        <f>180-G59</f>
+        <v>215.99873461007039</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="18"/>
+        <v>35.998734610070386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E60">
+        <v>25</v>
+      </c>
+      <c r="F60">
+        <f>(C58-C55)/(B58-B55)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="I60" s="1">
+        <f>180-G60</f>
+        <v>180</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E61">
+        <v>34</v>
+      </c>
+      <c r="F61">
+        <f>(C57-C56)/(B57-B56)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="I61" s="1">
+        <f>180-G61</f>
+        <v>180</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E62">
+        <v>35</v>
+      </c>
+      <c r="F62">
+        <f>(C58-C56)/(B58-B56)</f>
+        <v>0.72650878533231467</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="16"/>
+        <v>35.998734610070379</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="17"/>
+        <v>125.99873461007039</v>
+      </c>
+      <c r="I62" s="1">
+        <f>180-G62</f>
+        <v>144.00126538992961</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="18"/>
+        <v>-35.998734610070386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E63">
+        <v>45</v>
+      </c>
+      <c r="F63">
+        <f>(C58-C57)/(B58-B57)</f>
+        <v>3.0776699029126209</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="16"/>
+        <v>71.999925403104086</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="17"/>
+        <v>161.9999254031041</v>
+      </c>
+      <c r="I63" s="1">
+        <f>180-G63</f>
+        <v>108.00007459689591</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="18"/>
+        <v>-71.999925403104086</v>
       </c>
     </row>
   </sheetData>

--- a/각도 계산.xlsx
+++ b/각도 계산.xlsx
@@ -54,9 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-&gt;6</t>
-  </si>
-  <si>
     <t>2-&gt;7</t>
   </si>
   <si>
@@ -239,6 +236,10 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-&gt;6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,6 +247,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.0000000"/>
+    <numFmt numFmtId="198" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,11 +291,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -583,6 +598,8 @@
     <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -616,7 +633,7 @@
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <f>90-IF(M2&lt;0,K2,L2)</f>
@@ -651,7 +668,7 @@
         <v>-2.336576</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2">
         <v>63</v>
@@ -671,7 +688,7 @@
         <v>1.2</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F37" si="0">90-IF(M3&lt;0,K3,L3)</f>
@@ -706,7 +723,7 @@
         <v>-2.5528880000000003</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3">
         <v>54</v>
@@ -727,7 +744,7 @@
         <v>2.388951</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -762,7 +779,7 @@
         <v>-1.9278140000000001</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4">
         <v>27</v>
@@ -783,7 +800,7 @@
         <v>3.0546899999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -818,7 +835,7 @@
         <v>-1.3615019999999998</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5">
         <f>108-90</f>
@@ -840,7 +857,7 @@
         <v>4.9784550000000003</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -875,7 +892,7 @@
         <v>0.66150199999999992</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6">
         <v>-9</v>
@@ -896,7 +913,7 @@
         <v>5.3899039999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -931,7 +948,7 @@
         <v>1.227814</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P7">
         <v>-18</v>
@@ -952,7 +969,7 @@
         <v>5.3899039999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -987,7 +1004,7 @@
         <v>1.8528880000000001</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8">
         <v>-45</v>
@@ -1008,7 +1025,7 @@
         <v>4.9784550000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -1043,7 +1060,7 @@
         <v>1.6365759999999998</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P9">
         <f>36-90</f>
@@ -1065,7 +1082,7 @@
         <v>3.0546899999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1146,7 +1163,7 @@
         <v>-1.8528880000000001</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P11">
         <v>54</v>
@@ -1167,7 +1184,7 @@
         <v>3.4026000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1202,7 +1219,7 @@
         <v>-1.227814</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P12">
         <v>45</v>
@@ -1213,7 +1230,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1248,7 +1265,7 @@
         <v>-0.66150199999999992</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P13">
         <v>18</v>
@@ -1259,7 +1276,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1294,7 +1311,7 @@
         <v>1.3615019999999998</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14">
         <v>9</v>
@@ -1305,7 +1322,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1340,7 +1357,7 @@
         <v>1.9278140000000001</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P15">
         <v>-18</v>
@@ -1351,7 +1368,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1386,7 +1403,7 @@
         <v>2.5528880000000003</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16">
         <v>-27</v>
@@ -1397,7 +1414,7 @@
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1432,7 +1449,7 @@
         <v>2.336576</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17">
         <v>-54</v>
@@ -1443,7 +1460,7 @@
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -1478,7 +1495,7 @@
         <v>0.40876199999999985</v>
       </c>
       <c r="O18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18">
         <v>-63</v>
@@ -1489,7 +1506,7 @@
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -1526,7 +1543,7 @@
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1563,7 +1580,7 @@
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -1600,7 +1617,7 @@
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -1637,7 +1654,7 @@
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -1673,7 +1690,7 @@
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -1710,7 +1727,7 @@
     </row>
     <row r="25" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -1747,7 +1764,7 @@
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -1784,7 +1801,7 @@
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -1821,7 +1838,7 @@
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -1857,7 +1874,7 @@
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -1894,7 +1911,7 @@
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -1931,7 +1948,7 @@
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -1967,7 +1984,7 @@
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -2004,7 +2021,7 @@
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -2041,7 +2058,7 @@
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -2077,7 +2094,7 @@
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -2114,7 +2131,7 @@
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
@@ -2151,7 +2168,7 @@
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -2188,7 +2205,7 @@
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38">
         <f>90-IF(M38&lt;0,K38,L38)+360</f>
@@ -2225,7 +2242,7 @@
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39">
         <f t="shared" ref="F39:F41" si="10">90-IF(M39&lt;0,K39,L39)+360</f>
@@ -2262,7 +2279,7 @@
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40">
         <f t="shared" si="10"/>
@@ -2299,7 +2316,7 @@
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41">
         <f t="shared" si="10"/>
@@ -2336,7 +2353,7 @@
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42">
         <f>90-IF(M42&lt;0,K42,L42)+360</f>
@@ -2365,7 +2382,7 @@
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <f>90-IF(M43&lt;0,K43,L43)</f>
@@ -2394,7 +2411,7 @@
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44">
         <f t="shared" ref="F44:F47" si="14">90-IF(M44&lt;0,K44,L44)</f>
@@ -2423,7 +2440,7 @@
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <f t="shared" si="14"/>
@@ -2452,7 +2469,7 @@
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <f t="shared" si="14"/>
@@ -2481,7 +2498,7 @@
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <f t="shared" si="14"/>
@@ -2510,7 +2527,7 @@
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <f>90-IF(M48&lt;0,K48,L48)+360</f>
@@ -2539,7 +2556,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <f t="shared" ref="F49:F51" si="15">90-IF(M49&lt;0,K49,L49)+360</f>
@@ -2568,7 +2585,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50">
         <f t="shared" si="15"/>
@@ -2597,7 +2614,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51">
         <f t="shared" si="15"/>
@@ -2626,10 +2643,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
         <v>60</v>
-      </c>
-      <c r="C53" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
@@ -2640,30 +2657,30 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E54">
         <v>12</v>
       </c>
       <c r="F54">
         <f>(C55-C54)/(B55-B54)</f>
-        <v>0.72651421508034608</v>
+        <v>0.35568603213844252</v>
       </c>
       <c r="G54" s="1">
         <f>DEGREES(ATAN(F54))</f>
-        <v>35.998938234749858</v>
+        <v>19.579762299269959</v>
       </c>
       <c r="H54" s="1">
         <f>90+G54</f>
-        <v>125.99893823474986</v>
+        <v>109.57976229926996</v>
       </c>
       <c r="I54" s="1">
-        <f>180-G54</f>
-        <v>144.00106176525014</v>
+        <f t="shared" ref="I54:I63" si="16">180-G54</f>
+        <v>160.42023770073004</v>
       </c>
       <c r="J54" s="1">
         <f>I54-180</f>
-        <v>-35.998938234749858</v>
+        <v>-19.579762299269959</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
@@ -2681,23 +2698,23 @@
       </c>
       <c r="F55">
         <f>(C56-C54)/(B56-B54)</f>
-        <v>3.0775000000000001</v>
+        <v>2.4775</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" ref="G55:G63" si="16">DEGREES(ATAN(F55))</f>
-        <v>71.998995766209418</v>
+        <f t="shared" ref="G55:G63" si="17">DEGREES(ATAN(F55))</f>
+        <v>68.019386227246002</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" ref="H55:H63" si="17">90+G55</f>
-        <v>161.99899576620942</v>
+        <f t="shared" ref="H55:H63" si="18">90+G55</f>
+        <v>158.019386227246</v>
       </c>
       <c r="I55" s="1">
-        <f>180-G55</f>
-        <v>108.00100423379058</v>
+        <f t="shared" si="16"/>
+        <v>111.980613772754</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" ref="J55:J63" si="18">I55-180</f>
-        <v>-71.998995766209418</v>
+        <f t="shared" ref="J55:J63" si="19">I55-180</f>
+        <v>-68.019386227246002</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -2715,23 +2732,23 @@
       </c>
       <c r="F56">
         <f>(C57-C54)/(B57-B54)</f>
-        <v>-3.0775000000000001</v>
+        <v>-2.4775</v>
       </c>
       <c r="G56" s="1">
+        <f t="shared" si="17"/>
+        <v>-68.019386227246002</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="18"/>
+        <v>21.980613772753998</v>
+      </c>
+      <c r="I56" s="1">
         <f t="shared" si="16"/>
-        <v>-71.998995766209418</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="17"/>
-        <v>18.001004233790582</v>
-      </c>
-      <c r="I56" s="1">
-        <f>180-G56</f>
-        <v>251.99899576620942</v>
+        <v>248.019386227246</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="18"/>
-        <v>71.998995766209418</v>
+        <f t="shared" si="19"/>
+        <v>68.019386227246002</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
@@ -2749,23 +2766,23 @@
       </c>
       <c r="F57">
         <f>(C58-C54)/(B58-B54)</f>
-        <v>-0.72651421508034608</v>
+        <v>-0.35568603213844252</v>
       </c>
       <c r="G57" s="1">
+        <f t="shared" si="17"/>
+        <v>-19.579762299269959</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="18"/>
+        <v>70.420237700730041</v>
+      </c>
+      <c r="I57" s="1">
         <f t="shared" si="16"/>
-        <v>-35.998938234749858</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="17"/>
-        <v>54.001061765250142</v>
-      </c>
-      <c r="I57" s="1">
-        <f>180-G57</f>
-        <v>215.99893823474986</v>
+        <v>199.57976229926996</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="18"/>
-        <v>35.998938234749858</v>
+        <f t="shared" si="19"/>
+        <v>19.579762299269959</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -2786,19 +2803,19 @@
         <v>-3.0776699029126209</v>
       </c>
       <c r="G58" s="1">
+        <f t="shared" si="17"/>
+        <v>-71.999925403104086</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="18"/>
+        <v>18.000074596895914</v>
+      </c>
+      <c r="I58" s="1">
         <f t="shared" si="16"/>
-        <v>-71.999925403104086</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" si="17"/>
-        <v>18.000074596895914</v>
-      </c>
-      <c r="I58" s="1">
-        <f>180-G58</f>
         <v>251.9999254031041</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>71.9999254031041</v>
       </c>
     </row>
@@ -2811,19 +2828,19 @@
         <v>-0.72650878533231467</v>
       </c>
       <c r="G59" s="1">
+        <f t="shared" si="17"/>
+        <v>-35.998734610070379</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="18"/>
+        <v>54.001265389929621</v>
+      </c>
+      <c r="I59" s="1">
         <f t="shared" si="16"/>
-        <v>-35.998734610070379</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" si="17"/>
-        <v>54.001265389929621</v>
-      </c>
-      <c r="I59" s="1">
-        <f>180-G59</f>
         <v>215.99873461007039</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.998734610070386</v>
       </c>
     </row>
@@ -2836,19 +2853,19 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I60" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="17"/>
-        <v>90</v>
-      </c>
-      <c r="I60" s="1">
-        <f>180-G60</f>
         <v>180</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2861,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I61" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" si="17"/>
-        <v>90</v>
-      </c>
-      <c r="I61" s="1">
-        <f>180-G61</f>
         <v>180</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2886,19 +2903,19 @@
         <v>0.72650878533231467</v>
       </c>
       <c r="G62" s="1">
+        <f t="shared" si="17"/>
+        <v>35.998734610070379</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="18"/>
+        <v>125.99873461007039</v>
+      </c>
+      <c r="I62" s="1">
         <f t="shared" si="16"/>
-        <v>35.998734610070379</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" si="17"/>
-        <v>125.99873461007039</v>
-      </c>
-      <c r="I62" s="1">
-        <f>180-G62</f>
         <v>144.00126538992961</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-35.998734610070386</v>
       </c>
     </row>
@@ -2911,20 +2928,215 @@
         <v>3.0776699029126209</v>
       </c>
       <c r="G63" s="1">
+        <f t="shared" si="17"/>
+        <v>71.999925403104086</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="18"/>
+        <v>161.9999254031041</v>
+      </c>
+      <c r="I63" s="1">
         <f t="shared" si="16"/>
-        <v>71.999925403104086</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" si="17"/>
-        <v>161.9999254031041</v>
-      </c>
-      <c r="I63" s="1">
-        <f>180-G63</f>
         <v>108.00007459689591</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-71.999925403104086</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <f>(B2+B3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>(C2+C3)/2</f>
+        <v>1.2</v>
+      </c>
+      <c r="E65">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <v>31</v>
+      </c>
+      <c r="G65" s="2">
+        <f>(B65+B67)/2</f>
+        <v>0.64732900000000004</v>
+      </c>
+      <c r="H65" s="2">
+        <f>(C65+C67)/2</f>
+        <v>3.1920897500000001</v>
+      </c>
+      <c r="I65" s="3">
+        <f>(C65-C67)/(B65-B67)</f>
+        <v>3.0773992050410222</v>
+      </c>
+      <c r="J65" s="3">
+        <f>DEGREES(ATAN(I65))</f>
+        <v>71.998444214935674</v>
+      </c>
+      <c r="K65" s="4">
+        <f>90+J65</f>
+        <v>161.99844421493566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <f>(B4+B5)/2</f>
+        <v>2.094732</v>
+      </c>
+      <c r="C66">
+        <f>(C4+C5)/2</f>
+        <v>2.7218204999999998</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>41</v>
+      </c>
+      <c r="G66" s="2">
+        <f>(B65+B68)/2</f>
+        <v>-0.64732900000000004</v>
+      </c>
+      <c r="H66" s="2">
+        <f>(C65+C68)/2</f>
+        <v>3.1920897500000001</v>
+      </c>
+      <c r="I66" s="3">
+        <f>(C65-C68)/(B65-B68)</f>
+        <v>-3.0773992050410222</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" ref="J66:J69" si="20">DEGREES(ATAN(I66))</f>
+        <v>-71.998444214935674</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" ref="K66:K69" si="21">90+J66</f>
+        <v>18.001555785064326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <f>(B6+B7)/2</f>
+        <v>1.2946580000000001</v>
+      </c>
+      <c r="C67">
+        <f>(C6+C7)/2</f>
+        <v>5.1841794999999999</v>
+      </c>
+      <c r="E67">
+        <v>24</v>
+      </c>
+      <c r="F67">
+        <v>42</v>
+      </c>
+      <c r="G67" s="2">
+        <f>(B66+B68)/2</f>
+        <v>0.40003699999999998</v>
+      </c>
+      <c r="H67" s="2">
+        <f>(C66+C68)/2</f>
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="I67" s="3">
+        <f>(C66-C68)/(B66-B68)</f>
+        <v>-0.72649031241609852</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="20"/>
+        <v>-35.998041836782086</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="21"/>
+        <v>54.001958163217914</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <f>(B8+B9)/2</f>
+        <v>-1.2946580000000001</v>
+      </c>
+      <c r="C68">
+        <f>(C8+C9)/2</f>
+        <v>5.1841794999999999</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>52</v>
+      </c>
+      <c r="G68" s="2">
+        <f>(B66+B69)/2</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <f>(C66+C69)/2</f>
+        <v>2.7218204999999998</v>
+      </c>
+      <c r="I68" s="3">
+        <f>(C66-C69)/(B66-B69)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <f>(B10+B11)/2</f>
+        <v>-2.094732</v>
+      </c>
+      <c r="C69">
+        <f>(C10+C11)/2</f>
+        <v>2.7218204999999998</v>
+      </c>
+      <c r="E69">
+        <v>35</v>
+      </c>
+      <c r="F69">
+        <v>53</v>
+      </c>
+      <c r="G69" s="2">
+        <f>(B69+B67)/2</f>
+        <v>-0.40003699999999998</v>
+      </c>
+      <c r="H69" s="2">
+        <f>(C69+C67)/2</f>
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="I69" s="3">
+        <f>(C67-C69)/(B67-B69)</f>
+        <v>0.72649031241609852</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="20"/>
+        <v>35.998041836782086</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="21"/>
+        <v>125.99804183678208</v>
       </c>
     </row>
   </sheetData>
